--- a/DataFolder/Processed/NAMAKKAL DT SAMPLE LINE LIST 12.05.2021.xlsx
+++ b/DataFolder/Processed/NAMAKKAL DT SAMPLE LINE LIST 12.05.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>patient_id</t>
   </si>
@@ -55,139 +55,22 @@
     <t>C329991</t>
   </si>
   <si>
-    <t>C329992</t>
-  </si>
-  <si>
-    <t>C329993</t>
-  </si>
-  <si>
-    <t>C329994</t>
-  </si>
-  <si>
-    <t>C329995</t>
-  </si>
-  <si>
-    <t>C329996</t>
-  </si>
-  <si>
-    <t>C329997</t>
-  </si>
-  <si>
-    <t>C329998</t>
-  </si>
-  <si>
-    <t>C329999</t>
-  </si>
-  <si>
-    <t>C330000</t>
-  </si>
-  <si>
     <t>12.05.2021</t>
   </si>
   <si>
     <t>AMUDHAVALLI</t>
   </si>
   <si>
-    <t>SHAMEMA BEGAM</t>
-  </si>
-  <si>
-    <t>NAGARAJAN</t>
-  </si>
-  <si>
-    <t>VALARMATHI</t>
-  </si>
-  <si>
-    <t>PRIYA</t>
-  </si>
-  <si>
-    <t>KARNAN</t>
-  </si>
-  <si>
-    <t>PAPPU</t>
-  </si>
-  <si>
-    <t>LAKSHMANAN</t>
-  </si>
-  <si>
-    <t>SARAVANA KUMAR</t>
-  </si>
-  <si>
-    <t>THAYARAM</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>W/O MANIKANDAN A S PETTAI NAMAKKAL</t>
   </si>
   <si>
-    <t xml:space="preserve">W/O JETHESWARAN KOSAVAMPATTY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/O PALANI SEVAKARAMPATTY THOTTIYAM </t>
-  </si>
-  <si>
-    <t>W/O ELANGOVAN KOLLI HILLS</t>
-  </si>
-  <si>
-    <t>W/O VIJAY MADGUKARAI CHIDHAMBARAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOVILUR DHARMAPURI </t>
-  </si>
-  <si>
-    <t>W/O KARUPANNAN THILLAIPURAM</t>
-  </si>
-  <si>
-    <t>RMESH  N PUDHUPALAYAM JEDARPALAYAM</t>
-  </si>
-  <si>
-    <t>S/O MANIKAM THOTTIYAM</t>
-  </si>
-  <si>
-    <t>S/O KUTTY THOTTIYAM</t>
-  </si>
-  <si>
     <t>NEGATIVE</t>
   </si>
   <si>
-    <t>POSITIVE</t>
-  </si>
-  <si>
-    <t>13.05.2021</t>
-  </si>
-  <si>
     <t>293567543</t>
-  </si>
-  <si>
-    <t>293567574</t>
-  </si>
-  <si>
-    <t>293567605</t>
-  </si>
-  <si>
-    <t>293567628</t>
-  </si>
-  <si>
-    <t>293567657</t>
-  </si>
-  <si>
-    <t>293567687</t>
-  </si>
-  <si>
-    <t>293567707</t>
-  </si>
-  <si>
-    <t>293567742</t>
-  </si>
-  <si>
-    <t>293567775</t>
-  </si>
-  <si>
-    <t>293567823</t>
   </si>
   <si>
     <t>edit</t>
@@ -548,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M12"/>
+  <dimension ref="A2:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,373 +483,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>8124818122</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <v>9597817096</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>55</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5">
-        <v>8508367172</v>
-      </c>
-      <c r="I5">
-        <v>3358000440931</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6">
-        <v>9175082785</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7">
-        <v>7395845636</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8">
-        <v>8675145941</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10">
-        <v>95966595047</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11">
-        <v>9788067317</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12">
-        <v>9486825740</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
